--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Ceguera.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Ceguera.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34.20965178756053</v>
+        <v>34.12942556846704</v>
       </c>
       <c r="B2" t="n">
-        <v>29.20382723220118</v>
+        <v>29.31856681616817</v>
       </c>
       <c r="C2" t="n">
-        <v>39.30482040020648</v>
+        <v>39.19264274160815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25.57521332260892</v>
+        <v>26.1085361391383</v>
       </c>
       <c r="B3" t="n">
-        <v>7.469219396756197</v>
+        <v>9.346835616438318</v>
       </c>
       <c r="C3" t="n">
-        <v>43.24988576864531</v>
+        <v>43.30291095890406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25.92022455957025</v>
+        <v>25.61246420446107</v>
       </c>
       <c r="B4" t="n">
-        <v>8.834938193810238</v>
+        <v>8.127516438356157</v>
       </c>
       <c r="C4" t="n">
-        <v>44.52974080560985</v>
+        <v>44.10502054794514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32.22560850151</v>
+        <v>32.05133063292968</v>
       </c>
       <c r="B5" t="n">
-        <v>9.808576418556052</v>
+        <v>8.661695890410936</v>
       </c>
       <c r="C5" t="n">
-        <v>52.33203846543358</v>
+        <v>52.71659452054792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36.7076212330399</v>
+        <v>37.42199821876793</v>
       </c>
       <c r="B6" t="n">
-        <v>24.43377645653655</v>
+        <v>24.32837267390138</v>
       </c>
       <c r="C6" t="n">
-        <v>49.46279184899233</v>
+        <v>49.77000765492491</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29.22402683425014</v>
+        <v>29.02369712323709</v>
       </c>
       <c r="B7" t="n">
-        <v>23.2490184172995</v>
+        <v>24.20142678428143</v>
       </c>
       <c r="C7" t="n">
-        <v>33.82467046323911</v>
+        <v>34.00034884690801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19.75255789616614</v>
+        <v>19.74371943946466</v>
       </c>
       <c r="B8" t="n">
-        <v>16.77835160163945</v>
+        <v>16.68357572480302</v>
       </c>
       <c r="C8" t="n">
-        <v>22.87229116481427</v>
+        <v>22.69771929828047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33.83300272975771</v>
+        <v>34.17500557534638</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0303733429664</v>
+        <v>21.46197427701669</v>
       </c>
       <c r="C9" t="n">
-        <v>46.87285977644105</v>
+        <v>46.87899118306347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21.95416480930598</v>
+        <v>21.86237345406464</v>
       </c>
       <c r="B10" t="n">
-        <v>18.51455562762787</v>
+        <v>18.52910375391417</v>
       </c>
       <c r="C10" t="n">
-        <v>25.40446143957832</v>
+        <v>25.24287847222094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31.11928482358038</v>
+        <v>31.0936790550825</v>
       </c>
       <c r="B11" t="n">
-        <v>26.96816272213671</v>
+        <v>26.65696929328635</v>
       </c>
       <c r="C11" t="n">
-        <v>35.7243474546342</v>
+        <v>35.61371071835922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>41.95474861315905</v>
+        <v>41.48439171289267</v>
       </c>
       <c r="B12" t="n">
-        <v>33.64222696495585</v>
+        <v>34.68616755797021</v>
       </c>
       <c r="C12" t="n">
-        <v>48.90809819266139</v>
+        <v>48.77938802541948</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>28.31728553084897</v>
+        <v>28.33678478820592</v>
       </c>
       <c r="B13" t="n">
-        <v>24.46287215990281</v>
+        <v>24.59742474637492</v>
       </c>
       <c r="C13" t="n">
-        <v>32.33467365667349</v>
+        <v>32.39165826030511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>28.49591611259493</v>
+        <v>28.46121568602972</v>
       </c>
       <c r="B14" t="n">
-        <v>24.15754195324045</v>
+        <v>24.06938743787805</v>
       </c>
       <c r="C14" t="n">
-        <v>32.18812831011302</v>
+        <v>32.32682432831723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38.44451761681317</v>
+        <v>39.01139191436205</v>
       </c>
       <c r="B15" t="n">
-        <v>11.86718404409896</v>
+        <v>11.99314520547943</v>
       </c>
       <c r="C15" t="n">
-        <v>61.68752347481667</v>
+        <v>62.50157385844747</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>36.65192062441201</v>
+        <v>37.62268936181368</v>
       </c>
       <c r="B16" t="n">
-        <v>24.87544985922309</v>
+        <v>24.50282853387094</v>
       </c>
       <c r="C16" t="n">
-        <v>49.85165004649662</v>
+        <v>49.91878752935411</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>41.47689471052431</v>
+        <v>41.614971646052</v>
       </c>
       <c r="B17" t="n">
-        <v>33.40850015307538</v>
+        <v>34.73326651471679</v>
       </c>
       <c r="C17" t="n">
-        <v>48.53199810270379</v>
+        <v>48.84536074197544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26.03106415668748</v>
+        <v>25.90823312998291</v>
       </c>
       <c r="B18" t="n">
-        <v>8.285899492643317</v>
+        <v>7.715773972602733</v>
       </c>
       <c r="C18" t="n">
-        <v>43.2856096651445</v>
+        <v>43.29995890410951</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>35.18268896039174</v>
+        <v>35.37725806911243</v>
       </c>
       <c r="B19" t="n">
-        <v>30.89172607219908</v>
+        <v>31.06512943402012</v>
       </c>
       <c r="C19" t="n">
-        <v>39.94321672391327</v>
+        <v>40.0252616163414</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>42.04156934993962</v>
+        <v>42.60071102594345</v>
       </c>
       <c r="B20" t="n">
-        <v>30.01848167233373</v>
+        <v>29.73003814959765</v>
       </c>
       <c r="C20" t="n">
-        <v>53.54446432604455</v>
+        <v>53.29272130324579</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>38.7884048203627</v>
+        <v>38.97228270249702</v>
       </c>
       <c r="B21" t="n">
-        <v>18.21458214829307</v>
+        <v>18.35535730593601</v>
       </c>
       <c r="C21" t="n">
-        <v>58.09866532789057</v>
+        <v>57.66375536529679</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.83786437301859</v>
+        <v>23.8225290995534</v>
       </c>
       <c r="B22" t="n">
-        <v>20.48888749071477</v>
+        <v>20.27041489334389</v>
       </c>
       <c r="C22" t="n">
-        <v>27.43689861475188</v>
+        <v>27.42934697190262</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>38.750064585398</v>
+        <v>38.23173071104372</v>
       </c>
       <c r="B23" t="n">
-        <v>10.23870435819379</v>
+        <v>9.725656073059337</v>
       </c>
       <c r="C23" t="n">
-        <v>62.67740212078711</v>
+        <v>63.4669600913242</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36.34443369958949</v>
+        <v>37.55191223670519</v>
       </c>
       <c r="B24" t="n">
-        <v>24.84956823630989</v>
+        <v>24.4524587021684</v>
       </c>
       <c r="C24" t="n">
-        <v>49.95645240387547</v>
+        <v>49.90610727821257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30.33834811776879</v>
+        <v>30.869641371766</v>
       </c>
       <c r="B25" t="n">
-        <v>18.55567027216058</v>
+        <v>18.67872104370511</v>
       </c>
       <c r="C25" t="n">
-        <v>43.15284677026947</v>
+        <v>43.02911958904106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>38.28878489644499</v>
+        <v>38.51791641056233</v>
       </c>
       <c r="B26" t="n">
-        <v>16.10696012238165</v>
+        <v>17.09056844748853</v>
       </c>
       <c r="C26" t="n">
-        <v>57.29049020134405</v>
+        <v>57.20145093607307</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>31.97761291298697</v>
+        <v>31.91699371125829</v>
       </c>
       <c r="B27" t="n">
-        <v>27.65036950349273</v>
+        <v>27.64797658862376</v>
       </c>
       <c r="C27" t="n">
-        <v>36.12708993255881</v>
+        <v>36.19512596740906</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>31.9319994389925</v>
+        <v>31.57688499601382</v>
       </c>
       <c r="B28" t="n">
-        <v>26.5337056897544</v>
+        <v>27.01270754546501</v>
       </c>
       <c r="C28" t="n">
-        <v>36.15393487905756</v>
+        <v>35.98355368103985</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>42.55910506856583</v>
+        <v>42.07436530901038</v>
       </c>
       <c r="B29" t="n">
-        <v>15.25971978691017</v>
+        <v>14.51732054794519</v>
       </c>
       <c r="C29" t="n">
-        <v>67.6354636596481</v>
+        <v>67.95699999999989</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>38.8546251515742</v>
+        <v>38.56013081978724</v>
       </c>
       <c r="B30" t="n">
-        <v>31.20005845562879</v>
+        <v>31.59071560864117</v>
       </c>
       <c r="C30" t="n">
-        <v>44.9399785566743</v>
+        <v>44.92904038547671</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>26.44967237606228</v>
+        <v>26.3850687612412</v>
       </c>
       <c r="B31" t="n">
-        <v>22.81231913376157</v>
+        <v>22.63395273274789</v>
       </c>
       <c r="C31" t="n">
-        <v>29.94388245662618</v>
+        <v>30.07027319180291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>22.7568748692506</v>
+        <v>22.73950625421337</v>
       </c>
       <c r="B32" t="n">
-        <v>18.95517864652238</v>
+        <v>19.00281697755642</v>
       </c>
       <c r="C32" t="n">
-        <v>26.2911141865952</v>
+        <v>26.21903017727035</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>28.56306758916908</v>
+        <v>28.53547808686232</v>
       </c>
       <c r="B33" t="n">
-        <v>24.43115555553292</v>
+        <v>24.45439953724479</v>
       </c>
       <c r="C33" t="n">
-        <v>32.25691282979291</v>
+        <v>32.4557622560317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>41.20136467421293</v>
+        <v>41.13276909015847</v>
       </c>
       <c r="B34" t="n">
-        <v>35.39233596999217</v>
+        <v>35.13540420259539</v>
       </c>
       <c r="C34" t="n">
-        <v>46.90534567409203</v>
+        <v>46.8216952986857</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>39.26041721299521</v>
+        <v>39.88184167888606</v>
       </c>
       <c r="B35" t="n">
-        <v>27.31261503599817</v>
+        <v>27.27994400403248</v>
       </c>
       <c r="C35" t="n">
-        <v>51.64284734545723</v>
+        <v>51.5019811308564</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>29.32989050449605</v>
+        <v>29.1403884615348</v>
       </c>
       <c r="B36" t="n">
-        <v>23.30839291515557</v>
+        <v>24.53153260955471</v>
       </c>
       <c r="C36" t="n">
-        <v>33.7197989182329</v>
+        <v>33.70303633282042</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>41.21834508483098</v>
+        <v>41.0880898100937</v>
       </c>
       <c r="B37" t="n">
-        <v>20.74047619482491</v>
+        <v>19.20888748858443</v>
       </c>
       <c r="C37" t="n">
-        <v>60.99828547139008</v>
+        <v>59.68280545662101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>31.87612605331439</v>
+        <v>31.8772654546153</v>
       </c>
       <c r="B38" t="n">
-        <v>27.54085886926575</v>
+        <v>27.55649750432548</v>
       </c>
       <c r="C38" t="n">
-        <v>36.6816312600689</v>
+        <v>36.61292671085383</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>44.56500325656948</v>
+        <v>44.0651516130504</v>
       </c>
       <c r="B39" t="n">
-        <v>35.55782965747758</v>
+        <v>36.94323515842868</v>
       </c>
       <c r="C39" t="n">
-        <v>51.18360961266342</v>
+        <v>51.38939509448808</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>32.51655810011672</v>
+        <v>32.34747513956009</v>
       </c>
       <c r="B40" t="n">
-        <v>12.56045448720732</v>
+        <v>12.10359269406385</v>
       </c>
       <c r="C40" t="n">
-        <v>50.77054188450507</v>
+        <v>50.57102511415522</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>26.39656582351627</v>
+        <v>26.32256772747394</v>
       </c>
       <c r="B41" t="n">
-        <v>21.20315220703262</v>
+        <v>21.45186075426071</v>
       </c>
       <c r="C41" t="n">
-        <v>31.19940226883461</v>
+        <v>31.26842164047619</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>33.04502321300034</v>
+        <v>33.04668048007434</v>
       </c>
       <c r="B42" t="n">
-        <v>28.54205093838778</v>
+        <v>28.59460170512763</v>
       </c>
       <c r="C42" t="n">
-        <v>37.74721292860356</v>
+        <v>37.69161692963961</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>38.7542245594114</v>
+        <v>38.55414186684006</v>
       </c>
       <c r="B43" t="n">
-        <v>31.20005845562879</v>
+        <v>31.60815511478123</v>
       </c>
       <c r="C43" t="n">
-        <v>44.87257242730147</v>
+        <v>44.90649165056023</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>24.36449723389773</v>
+        <v>24.26741289046595</v>
       </c>
       <c r="B44" t="n">
-        <v>20.63537065964253</v>
+        <v>20.60921519300247</v>
       </c>
       <c r="C44" t="n">
-        <v>28.29085821118434</v>
+        <v>28.26519458625814</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>36.97033089870769</v>
+        <v>36.96422605449266</v>
       </c>
       <c r="B45" t="n">
-        <v>32.34529108761426</v>
+        <v>31.95345325939918</v>
       </c>
       <c r="C45" t="n">
-        <v>42.25963726259572</v>
+        <v>42.30085496088262</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24.23483542780687</v>
+        <v>24.24853275888623</v>
       </c>
       <c r="B46" t="n">
-        <v>20.82070062821959</v>
+        <v>20.79147969320045</v>
       </c>
       <c r="C46" t="n">
-        <v>27.80178975990469</v>
+        <v>27.78348250439363</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25.73950067528402</v>
+        <v>25.84286615829155</v>
       </c>
       <c r="B47" t="n">
-        <v>21.83860714240238</v>
+        <v>21.34482895753736</v>
       </c>
       <c r="C47" t="n">
-        <v>30.10643961677149</v>
+        <v>29.9041903708369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>41.7147553871276</v>
+        <v>41.6130932237929</v>
       </c>
       <c r="B48" t="n">
-        <v>33.82477465701272</v>
+        <v>34.82354814430418</v>
       </c>
       <c r="C48" t="n">
-        <v>48.9269151859632</v>
+        <v>48.90366767460502</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>30.20981852824133</v>
+        <v>30.1781930606387</v>
       </c>
       <c r="B49" t="n">
-        <v>9.210108170254395</v>
+        <v>8.454687671232865</v>
       </c>
       <c r="C49" t="n">
-        <v>48.07446813063767</v>
+        <v>47.00985068493145</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>41.59653414849642</v>
+        <v>41.2550864366804</v>
       </c>
       <c r="B50" t="n">
-        <v>20.85500415525109</v>
+        <v>19.77558630136981</v>
       </c>
       <c r="C50" t="n">
-        <v>60.69715753294936</v>
+        <v>59.72596283105022</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25.82778208069766</v>
+        <v>25.89429457946789</v>
       </c>
       <c r="B51" t="n">
-        <v>6.450652496013607</v>
+        <v>7.294867123287662</v>
       </c>
       <c r="C51" t="n">
-        <v>42.65049821917806</v>
+        <v>43.46526849315065</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>22.03005253457577</v>
+        <v>22.10038745071709</v>
       </c>
       <c r="B52" t="n">
-        <v>18.84131757498227</v>
+        <v>18.84506979246748</v>
       </c>
       <c r="C52" t="n">
-        <v>25.40298939797389</v>
+        <v>25.4421951089014</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>44.82617497910207</v>
+        <v>44.13256122762554</v>
       </c>
       <c r="B53" t="n">
-        <v>35.86598355840648</v>
+        <v>37.15316099798428</v>
       </c>
       <c r="C53" t="n">
-        <v>50.90101053510846</v>
+        <v>51.37792930276139</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>38.3548786684056</v>
+        <v>38.27178301174649</v>
       </c>
       <c r="B54" t="n">
-        <v>11.61940364183759</v>
+        <v>10.9088625570776</v>
       </c>
       <c r="C54" t="n">
-        <v>61.97987916101657</v>
+        <v>62.19631506849313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>38.81343264043623</v>
+        <v>39.03601558699202</v>
       </c>
       <c r="B55" t="n">
-        <v>18.13170893672536</v>
+        <v>16.83902945205475</v>
       </c>
       <c r="C55" t="n">
-        <v>57.95975253531491</v>
+        <v>56.99191906392691</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>26.38052207229586</v>
+        <v>26.3285266134616</v>
       </c>
       <c r="B56" t="n">
-        <v>22.80885394285892</v>
+        <v>22.58291848815886</v>
       </c>
       <c r="C56" t="n">
-        <v>30.15632956713177</v>
+        <v>30.29180453623434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>22.75566428193256</v>
+        <v>22.74383543772412</v>
       </c>
       <c r="B57" t="n">
-        <v>18.9590123790365</v>
+        <v>19.01217846172724</v>
       </c>
       <c r="C57" t="n">
-        <v>26.2911141865952</v>
+        <v>26.23681375755668</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>41.18779966100482</v>
+        <v>40.59902330730518</v>
       </c>
       <c r="B58" t="n">
-        <v>18.29209578691016</v>
+        <v>17.63946328767119</v>
       </c>
       <c r="C58" t="n">
-        <v>60.06202442338667</v>
+        <v>58.9572366210046</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>28.78654433005786</v>
+        <v>28.77200455725475</v>
       </c>
       <c r="B59" t="n">
-        <v>24.85223804672863</v>
+        <v>24.36009829744212</v>
       </c>
       <c r="C59" t="n">
-        <v>33.26084526646733</v>
+        <v>33.22746851960453</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>39.31520006520677</v>
+        <v>39.4692762305454</v>
       </c>
       <c r="B60" t="n">
-        <v>11.91779522577372</v>
+        <v>11.72526712328767</v>
       </c>
       <c r="C60" t="n">
-        <v>63.90405301953318</v>
+        <v>64.62098207762558</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30.17429176203749</v>
+        <v>30.02478003034906</v>
       </c>
       <c r="B61" t="n">
-        <v>25.894120035204</v>
+        <v>25.90193449516411</v>
       </c>
       <c r="C61" t="n">
-        <v>34.45938539340546</v>
+        <v>34.40939345051892</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>31.12345057280066</v>
+        <v>31.02341694954274</v>
       </c>
       <c r="B62" t="n">
-        <v>26.96816272213671</v>
+        <v>26.59638861372367</v>
       </c>
       <c r="C62" t="n">
-        <v>35.70681009092115</v>
+        <v>35.54118692945911</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>33.9646252668088</v>
+        <v>34.05092947585607</v>
       </c>
       <c r="B63" t="n">
-        <v>29.66410608193201</v>
+        <v>29.84357358760177</v>
       </c>
       <c r="C63" t="n">
-        <v>38.05804615337684</v>
+        <v>37.93909210361434</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>39.28456082116039</v>
+        <v>39.22473083552515</v>
       </c>
       <c r="B64" t="n">
-        <v>11.22871577371892</v>
+        <v>11.08142420091323</v>
       </c>
       <c r="C64" t="n">
-        <v>63.97240352012508</v>
+        <v>64.50699486301372</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20.66204023578746</v>
+        <v>20.69713323799546</v>
       </c>
       <c r="B65" t="n">
-        <v>17.36315577902948</v>
+        <v>17.42888855813554</v>
       </c>
       <c r="C65" t="n">
-        <v>23.7883170492309</v>
+        <v>24.02051526496971</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>39.05065342551185</v>
+        <v>38.81281171334494</v>
       </c>
       <c r="B66" t="n">
-        <v>33.60056040742978</v>
+        <v>33.72934768000191</v>
       </c>
       <c r="C66" t="n">
-        <v>44.31783868426693</v>
+        <v>44.19705028459467</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>36.33054332810026</v>
+        <v>36.23189411997058</v>
       </c>
       <c r="B67" t="n">
-        <v>31.16921637796945</v>
+        <v>31.21503068953969</v>
       </c>
       <c r="C67" t="n">
-        <v>41.57209189464238</v>
+        <v>41.41321923989365</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>34.82408924317346</v>
+        <v>35.69908291285977</v>
       </c>
       <c r="B68" t="n">
-        <v>17.50402925636006</v>
+        <v>16.42873607305933</v>
       </c>
       <c r="C68" t="n">
-        <v>52.20854125184776</v>
+        <v>53.80674406392691</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>25.69664481310923</v>
+        <v>25.78019013335827</v>
       </c>
       <c r="B69" t="n">
-        <v>22.32468643812989</v>
+        <v>22.37234408637107</v>
       </c>
       <c r="C69" t="n">
-        <v>29.89599835437739</v>
+        <v>29.55053044746207</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>32.54247771571097</v>
+        <v>32.3372421531549</v>
       </c>
       <c r="B70" t="n">
-        <v>12.84884978074938</v>
+        <v>12.80817899543372</v>
       </c>
       <c r="C70" t="n">
-        <v>49.97841092927152</v>
+        <v>49.99497305936065</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>27.37437717809531</v>
+        <v>27.45792606516065</v>
       </c>
       <c r="B71" t="n">
-        <v>19.05801390643519</v>
+        <v>18.84543450823921</v>
       </c>
       <c r="C71" t="n">
-        <v>34.69769904476551</v>
+        <v>34.6010936641518</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>33.76458307129147</v>
+        <v>33.45446971398252</v>
       </c>
       <c r="B72" t="n">
-        <v>26.42503951992055</v>
+        <v>26.02234158500374</v>
       </c>
       <c r="C72" t="n">
-        <v>40.54152969796987</v>
+        <v>40.56987031061694</v>
       </c>
     </row>
   </sheetData>
